--- a/development/07-connections/B6-detailed.xlsx
+++ b/development/07-connections/B6-detailed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
   <si>
     <t>web length</t>
   </si>
@@ -776,12 +776,27 @@
   <si>
     <t>stiffeners to plate weld area</t>
   </si>
+  <si>
+    <t>stiffenere for one flange</t>
+  </si>
+  <si>
+    <t>weld area</t>
+  </si>
+  <si>
+    <t>weld inertia</t>
+  </si>
+  <si>
+    <t>cm3</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld is fixed to 4 mm , weld of stiffener with flange continue to reach the plate , weld of web stops before flange weld thickness  , flange weld stops at stiffeners weld thickness , flange weld stops at web weld thickness, web normal stress is calculated with force / area + moment * y / inertia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,8 +903,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +940,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1081,14 +1115,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,15 +1171,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,13 +1192,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -1647,16 +1686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50346</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>822993</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>232202</xdr:rowOff>
+      <xdr:colOff>904635</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>218595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1673,8 +1712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5305425" y="3305175"/>
-          <a:ext cx="3257550" cy="4876800"/>
+          <a:off x="6296025" y="5583010"/>
+          <a:ext cx="3249146" cy="4840942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,17 +1988,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E6" sqref="E6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="7" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="71" bestFit="1" customWidth="1"/>
@@ -2033,7 +2072,7 @@
         <v>99</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>IF(AND(L28="safe", R10="safe",R20="safe",R36="safe",V10="safe",V44="safe",L38= "safe" ), "safe", "unsafe")</f>
+        <f>IF(AND(L28="safe", R10="safe",R20="safe",R36="safe",V12="safe",V46="safe",L38= "safe" ), "safe", "unsafe")</f>
         <v>unsafe</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2063,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="V3" s="2">
-        <f>0.2 * V27</f>
+        <f>0.2 * V29</f>
         <v>1.04</v>
       </c>
       <c r="W3" s="3" t="s">
@@ -2084,7 +2123,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f>V17</f>
+        <f>V19</f>
         <v>1.63</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2172,6 +2211,12 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2196,8 +2241,8 @@
         <v>141</v>
       </c>
       <c r="V6" s="2">
-        <f>R8*2*R3*0.4</f>
-        <v>126</v>
+        <f>R8*2*R3*0.4*2</f>
+        <v>252</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>9</v>
@@ -2213,6 +2258,10 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2234,14 +2283,14 @@
         <v>8</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="V7" s="2">
-        <f>B11/(V4*B24 + V5*B25+V6)</f>
-        <v>0.53389830508474578</v>
+        <f>V4*B24 + V5*B25+V6</f>
+        <v>480</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2254,6 +2303,10 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="K8" s="1" t="s">
         <v>63</v>
       </c>
@@ -2274,15 +2327,15 @@
       <c r="S8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>37</v>
+      <c r="U8" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="V8" s="2">
-        <f>B14/(V4*B24 + V5*B25+V6)</f>
-        <v>4.528248587570622E-2</v>
+        <f>POWER(V5/2,3) * B25  / 6 + (V6/2) * POWER(L7/2 + R8/2,2) + (V4/2) * POWER(B3,2)</f>
+        <v>496726.54166666669</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2295,6 +2348,10 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="K9" s="1" t="s">
         <v>64</v>
       </c>
@@ -2315,23 +2372,27 @@
       <c r="S9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>38</v>
+      <c r="U9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="V9" s="2">
-        <f>POWER(POWER(V7,2) +3*POWER(V8,2),0.5)</f>
-        <v>0.53962849327441453</v>
+        <f>B11/V7 + B15*100 * (L7+R8)/(2*V8)</f>
+        <v>0.89382394242824925</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="K10" s="4" t="s">
         <v>4</v>
       </c>
@@ -2352,14 +2413,16 @@
       <c r="S10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V10" s="2" t="str">
-        <f>IF(AND(MAX(V7:V8) &lt; V3, V9 &lt; V3*1.1), "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="W10" s="3"/>
+      <c r="U10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="2">
+        <f>B14/(V4*B24 + V5*B25+V6)</f>
+        <v>3.3395833333333333E-2</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2372,6 +2435,10 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="K11" s="4" t="s">
         <v>5</v>
       </c>
@@ -2387,6 +2454,16 @@
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
+      <c r="U11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="2">
+        <f>POWER(POWER(V9,2) +3*POWER(V10,2),0.5)</f>
+        <v>0.8956936335098411</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2398,6 +2475,10 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="K12" s="4" t="s">
         <v>73</v>
       </c>
@@ -2418,6 +2499,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="U12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f>IF(AND(MAX(V9:V10) &lt; V3, V11 &lt; V3*1.1), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -2429,6 +2518,10 @@
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="K13" s="4" t="s">
         <v>125</v>
       </c>
@@ -2449,11 +2542,6 @@
       <c r="S13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2466,6 +2554,10 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="K14" s="4" t="s">
         <v>46</v>
       </c>
@@ -2486,9 +2578,6 @@
       <c r="S14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -2520,23 +2609,18 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="V15" s="2">
-        <f>IF(R8-(B22+2)/10 &lt; 0, 0, R8-(B22+2)/10)</f>
-        <v>29.1</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="U15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="K16" s="4" t="s">
         <v>119</v>
       </c>
@@ -2557,16 +2641,9 @@
       <c r="S16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V16" s="2">
-        <f>IF(V15=0, 0, (L18/(R3-1)) * R4 / 4)</f>
-        <v>27.069293478260871</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2576,7 +2653,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>51</v>
@@ -2598,12 +2675,12 @@
       <c r="S17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>97</v>
+      <c r="U17" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="V17" s="2">
-        <f>IF(V15 = 0, 0, ROUND(POWER(6*V16/(V28 * V15), 0.5), 2 ))</f>
-        <v>1.63</v>
+        <f>IF(R8-(B22+2)/10 &lt; 0, 0, R8-(B22+2)/10)</f>
+        <v>29.1</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>8</v>
@@ -2639,8 +2716,18 @@
       <c r="S18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V18" s="2">
+        <f>IF(V17=0, 0, (L18/(R3-1)) * R4 / 4)</f>
+        <v>27.069293478260871</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>105</v>
       </c>
@@ -2670,13 +2757,23 @@
       <c r="S19" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="U19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="2">
+        <f>IF(V17 = 0, 0, ROUND(POWER(6*V18/(V30 * V17), 0.5), 2 ))</f>
+        <v>1.63</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="K20" s="20" t="s">
         <v>65</v>
       </c>
@@ -2736,11 +2833,11 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="K23" s="16" t="s">
         <v>16</v>
       </c>
@@ -2780,11 +2877,6 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
-      <c r="U24" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="V24" s="25"/>
-      <c r="W24" s="26"/>
     </row>
     <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2816,16 +2908,13 @@
       <c r="S25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29"/>
     </row>
     <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K26" s="18" t="s">
         <v>106</v>
       </c>
       <c r="L26" s="17">
-        <f>AVERAGE(V38,V39)*L11*POWER(L8,2)/2</f>
+        <f>AVERAGE(V40,V41)*L11*POWER(L8,2)/2</f>
         <v>54.304862778043081</v>
       </c>
       <c r="M26" s="19" t="s">
@@ -2841,22 +2930,18 @@
       <c r="S26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V26" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="U26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="22"/>
+      <c r="W26" s="23"/>
     </row>
     <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="16" t="s">
         <v>107</v>
       </c>
       <c r="L27" s="17">
-        <f>ROUND(POWER(6*L26 / ( L11 * V29 ), 0.5 ), 2)</f>
+        <f>ROUND(POWER(6*L26 / ( L11 * V31 ), 0.5 ), 2)</f>
         <v>1.34</v>
       </c>
       <c r="M27" s="17" t="s">
@@ -2872,15 +2957,9 @@
       <c r="S27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V27" s="15">
-        <v>5.2</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="U27" s="24"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="26"/>
     </row>
     <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K28" s="16" t="s">
@@ -2904,11 +2983,10 @@
         <v>9</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="V28" s="15">
-        <f>V26*0.58</f>
-        <v>2.0880000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>11</v>
@@ -2924,21 +3002,20 @@
         <v>20</v>
       </c>
       <c r="R29" s="2">
-        <f>0.35 * V26 * 0.85 *R28</f>
+        <f>0.35 * V28 * 0.85 *R28</f>
         <v>4.0712213357135481</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="V29" s="15">
-        <f>V26*0.72</f>
-        <v>2.5920000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
@@ -2956,20 +3033,21 @@
         <v>25</v>
       </c>
       <c r="R30" s="2">
-        <f>B22*0.1*L12*0.85*1.2*V27</f>
+        <f>B22*0.1*L12*0.85*1.2*V29</f>
         <v>23.337600000000002</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>24</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V30" s="12">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="V30" s="15">
+        <f>V28*0.58</f>
+        <v>2.0880000000000001</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
@@ -2993,6 +3071,16 @@
       <c r="S31" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="U31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V31" s="15">
+        <f>V28*0.72</f>
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K32" s="1" t="s">
@@ -3015,13 +3103,22 @@
       <c r="S32" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="U32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="12">
+        <v>77</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="11:23" ht="21" x14ac:dyDescent="0.35">
       <c r="K33" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L33" s="2">
-        <f>AVERAGE(V38,V41)*L11*POWER(L13,2)/2</f>
+        <f>AVERAGE(V40,V43)*L11*POWER(L13,2)/2</f>
         <v>2131.0773229697793</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -3031,7 +3128,7 @@
         <v>85</v>
       </c>
       <c r="R33" s="2">
-        <f>V28*0.85*R28</f>
+        <f>V30*0.85*R28</f>
         <v>6.7465953563253089</v>
       </c>
       <c r="S33" s="3" t="s">
@@ -3043,7 +3140,7 @@
         <v>136</v>
       </c>
       <c r="L34" s="2">
-        <f>AVERAGE(V38,V41)*L11*L13</f>
+        <f>AVERAGE(V40,V43)*L11*L13</f>
         <v>116.77136016272763</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -3079,11 +3176,6 @@
         <v>1.0372214307310057</v>
       </c>
       <c r="S35" s="3"/>
-      <c r="U35" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="V35" s="25"/>
-      <c r="W35" s="26"/>
     </row>
     <row r="36" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K36" s="1" t="s">
@@ -3106,11 +3198,8 @@
       <c r="S36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U36" s="27"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="11:23" ht="21" x14ac:dyDescent="0.3">
       <c r="K37" s="1" t="s">
         <v>131</v>
       </c>
@@ -3121,26 +3210,23 @@
       <c r="M37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="21" t="s">
+      <c r="Q37" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
-      <c r="U37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V37" s="10" t="str">
-        <f>IF(L14&gt;L15,"have tension", "not tension")</f>
-        <v>have tension</v>
-      </c>
-      <c r="W37" s="11"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
+      <c r="U37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="V37" s="22"/>
+      <c r="W37" s="23"/>
     </row>
     <row r="38" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K38" s="1" t="s">
         <v>127</v>
       </c>
       <c r="L38" s="17" t="str">
-        <f>IF(AND(L35&lt;V28, L37&lt;1.1*V28),"safe","unsafe")</f>
+        <f>IF(AND(L35&lt;V30, L37&lt;1.1*V30),"safe","unsafe")</f>
         <v>safe</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -3155,16 +3241,9 @@
       <c r="S38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V38" s="10">
-        <f>IF(L15&gt;L14, B11/L21 + B15*100*(L10/2)/(POWER(L10,3) * L11 / 12), L17*2/(3*L19*L11))</f>
-        <v>6.4659466021435644E-2</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="U38" s="24"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="26"/>
     </row>
     <row r="39" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q39" s="1" t="s">
@@ -3178,11 +3257,11 @@
         <v>8</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V39" s="10">
-        <f>IF(L15&gt;L14,B11 / L21 + B15*100 * (L10/2-L8) / L22, V38 * ((3*L19-L8)/(3*L19)) )</f>
-        <v>5.9465934614091415E-2</v>
+        <v>56</v>
+      </c>
+      <c r="V39" s="10" t="str">
+        <f>IF(L14&gt;L15,"have tension", "not tension")</f>
+        <v>have tension</v>
       </c>
       <c r="W39" s="11"/>
     </row>
@@ -3191,18 +3270,18 @@
         <v>91</v>
       </c>
       <c r="R40" s="2">
-        <f>IF(R39=50, (R34-PI()*B22*0.1*R39*R38/1000)/ (V30/1000), 0)</f>
+        <f>IF(R39=50, (R34-PI()*B22*0.1*R39*R38/1000)/ (V32/1000), 0)</f>
         <v>37.730153554165483</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V40" s="10">
-        <f>IF(L15&gt;L14,B11 / L21 + B15*100 * (L16 / 2) / L22, V38 * 2/3 )</f>
-        <v>4.3106310680957098E-2</v>
+        <f>IF(L15&gt;L14, B11/L21 + B15*100*(L10/2)/(POWER(L10,3) * L11 / 12), L17*2/(3*L19*L11))</f>
+        <v>6.4659466021435644E-2</v>
       </c>
       <c r="W40" s="11" t="s">
         <v>34</v>
@@ -3220,33 +3299,31 @@
         <v>8</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="V41" s="10">
-        <f>IF(L15&gt;L14, B15*100 * (L3/2+L6) / L22, V38 * (3*L19 - L8 - R8) / (3*L19) )</f>
-        <v>2.6746686747822778E-2</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>34</v>
-      </c>
+        <f>IF(L15&gt;L14,B11 / L21 + B15*100 * (L10/2-L8) / L22, V40 * ((3*L19-L8)/(3*L19)) )</f>
+        <v>5.9465934614091415E-2</v>
+      </c>
+      <c r="W41" s="11"/>
     </row>
     <row r="42" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q42" s="1" t="s">
         <v>116</v>
       </c>
       <c r="R42" s="2">
-        <f>POWER(R41,3)* V30 /8000</f>
+        <f>POWER(R41,3)* V32 /8000</f>
         <v>2.2279521109999996</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>62</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="V42" s="10">
-        <f>AVERAGE(V38:V40)</f>
-        <v>5.5743903772161381E-2</v>
+        <f>IF(L15&gt;L14,B11 / L21 + B15*100 * (L16 / 2) / L22, V40 * 2/3 )</f>
+        <v>4.3106310680957098E-2</v>
       </c>
       <c r="W42" s="11" t="s">
         <v>34</v>
@@ -3257,18 +3334,18 @@
         <v>115</v>
       </c>
       <c r="R43" s="2">
-        <f>POWER(6*R42/ (V28 *R41/2), 0.5)</f>
+        <f>POWER(6*R42/ (V30 *R41/2), 0.5)</f>
         <v>1.4440895194654257</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V43" s="10">
-        <f>AVERAGE(V41,V38)</f>
-        <v>4.5703076384629213E-2</v>
+        <f>IF(L15&gt;L14, B15*100 * (L3/2+L6) / L22, V40 * (3*L19 - L8 - R8) / (3*L19) )</f>
+        <v>2.6746686747822778E-2</v>
       </c>
       <c r="W43" s="11" t="s">
         <v>34</v>
@@ -3276,37 +3353,62 @@
     </row>
     <row r="44" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="U44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V44" s="10">
+        <f>AVERAGE(V40:V42)</f>
+        <v>5.5743903772161381E-2</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V45" s="10">
+        <f>AVERAGE(V43,V40)</f>
+        <v>4.5703076384629213E-2</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="11:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U46" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="V44" s="15" t="str">
-        <f>IF(V38&gt;V30/1000, "unsafe", "safe")</f>
+      <c r="V46" s="15" t="str">
+        <f>IF(V40&gt;V32/1000, "unsafe", "safe")</f>
         <v>safe</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="U15:W16"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="U37:W38"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="E6:H14"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="Q23:S24"/>
     <mergeCell ref="U1:W2"/>
     <mergeCell ref="Q1:S2"/>
-    <mergeCell ref="U24:W25"/>
+    <mergeCell ref="U26:W27"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="U13:W14"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="U35:W36"/>
-    <mergeCell ref="K29:M29"/>
   </mergeCells>
-  <conditionalFormatting sqref="L17:L19 L13:L15 V37:V43">
+  <conditionalFormatting sqref="L17:L19 L13:L15 V39:V45">
     <cfRule type="cellIs" dxfId="41" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3314,7 +3416,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V9">
+  <conditionalFormatting sqref="V10:V11">
     <cfRule type="cellIs" dxfId="39" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3322,7 +3424,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9 R14:R17">
+  <conditionalFormatting sqref="V11 R14:R17">
     <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -3330,7 +3432,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
+  <conditionalFormatting sqref="V12">
     <cfRule type="cellIs" dxfId="35" priority="60" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -3346,12 +3448,12 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38:V43">
+  <conditionalFormatting sqref="V40:V45">
     <cfRule type="cellIs" dxfId="31" priority="80" operator="lessThan">
-      <formula>$V$30/1000</formula>
+      <formula>$V$32/1000</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="81" operator="greaterThan">
-      <formula>$V$30/1000</formula>
+      <formula>$V$32/1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R8">
@@ -3407,7 +3509,7 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44">
+  <conditionalFormatting sqref="V46">
     <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
